--- a/data/trans_dic/P1434-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1434-Clase-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.03420638032143172</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0579128575433701</v>
+        <v>0.05791285754337011</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01354488912711856</v>
+        <v>0.01383324570907105</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01757837621505644</v>
+        <v>0.01718895010283919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0196474123593772</v>
+        <v>0.01977410145113084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04342404961705253</v>
+        <v>0.04236735579121883</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04938207236900566</v>
+        <v>0.04538702229287175</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05939963857811127</v>
+        <v>0.05890662080738388</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05695185359029371</v>
+        <v>0.05421253578886541</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07860599843896503</v>
+        <v>0.07758211886553164</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0123907353411759</v>
+        <v>0.0122853871533443</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02574836466962387</v>
+        <v>0.02665614299553483</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01988871197661703</v>
+        <v>0.02047983395635902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04412668384622617</v>
+        <v>0.04378945813997713</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04300558645459781</v>
+        <v>0.04450709430786908</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06744835788603276</v>
+        <v>0.07065112745399103</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06281909268652672</v>
+        <v>0.06407551366283122</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08484119631766143</v>
+        <v>0.08344445449383148</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0125488392674784</v>
+        <v>0.01284445499970593</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02411738324802154</v>
+        <v>0.02600337022482431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02463926985532792</v>
+        <v>0.02564421028874212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04567163612910152</v>
+        <v>0.04696246763315608</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03775306208852802</v>
+        <v>0.03759435823384891</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06029064632856342</v>
+        <v>0.06014025284652223</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05814857625218917</v>
+        <v>0.05739582617671055</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08637120085579025</v>
+        <v>0.08791548374390812</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03397493426042117</v>
+        <v>0.03347289494306868</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02581444524460529</v>
+        <v>0.02614769022090487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01743179298656147</v>
+        <v>0.01713218089809948</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04849779092793427</v>
+        <v>0.04852002195263231</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05721341061969176</v>
+        <v>0.05642147726366187</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.046851034584214</v>
+        <v>0.04687397488983672</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03484308855587906</v>
+        <v>0.03481179964823916</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07392689765928286</v>
+        <v>0.07305331144726832</v>
       </c>
     </row>
     <row r="16">
@@ -857,7 +857,7 @@
         <v>0.04993359645794889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05073884493931188</v>
+        <v>0.05073884493931189</v>
       </c>
     </row>
     <row r="17">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0291410428048284</v>
+        <v>0.03041861077531638</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02968155032862589</v>
+        <v>0.02965131948495564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03535036662846437</v>
+        <v>0.03683025046738353</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03721445183658515</v>
+        <v>0.03671825454389217</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07644386825881233</v>
+        <v>0.07574307157358948</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0694587664061679</v>
+        <v>0.06756607294899358</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06737634437337842</v>
+        <v>0.06926438887265034</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06733335015047463</v>
+        <v>0.06717246419766529</v>
       </c>
     </row>
     <row r="19">
@@ -948,12 +948,12 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0153375588930717</v>
+        <v>0.01547137403781883</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.01891499666888343</v>
+        <v>0.0178094316421446</v>
       </c>
     </row>
     <row r="22">
@@ -988,16 +988,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02712720199020536</v>
+        <v>0.02724818746380741</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0300238261727502</v>
+        <v>0.02982793413972675</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02672143259470538</v>
+        <v>0.02685062567440588</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04848456731319273</v>
+        <v>0.04872111547029292</v>
       </c>
     </row>
     <row r="24">
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0388654914227918</v>
+        <v>0.0393235543358084</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04384023250017213</v>
+        <v>0.04396102033889068</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03826674799892586</v>
+        <v>0.03878549437202938</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06192028163966723</v>
+        <v>0.06247411595376726</v>
       </c>
     </row>
     <row r="25">
@@ -1168,16 +1168,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6417</v>
+        <v>6554</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7647</v>
+        <v>7478</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8431</v>
+        <v>8485</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23683</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="7">
@@ -1188,16 +1188,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23396</v>
+        <v>21503</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25840</v>
+        <v>25625</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24438</v>
+        <v>23262</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42870</v>
+        <v>42312</v>
       </c>
     </row>
     <row r="8">
@@ -1252,16 +1252,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4547</v>
+        <v>4508</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10783</v>
+        <v>11164</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7503</v>
+        <v>7726</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21269</v>
+        <v>21107</v>
       </c>
     </row>
     <row r="11">
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15780</v>
+        <v>16331</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28247</v>
+        <v>29588</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23697</v>
+        <v>24171</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>40894</v>
+        <v>40220</v>
       </c>
     </row>
     <row r="12">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6806</v>
+        <v>6967</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15180</v>
+        <v>16367</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12860</v>
+        <v>13384</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21459</v>
+        <v>22066</v>
       </c>
     </row>
     <row r="15">
@@ -1356,16 +1356,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20477</v>
+        <v>20391</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37948</v>
+        <v>37853</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30349</v>
+        <v>29956</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40582</v>
+        <v>41308</v>
       </c>
     </row>
     <row r="16">
@@ -1420,16 +1420,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>42072</v>
+        <v>41451</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>29919</v>
+        <v>30305</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20040</v>
+        <v>19696</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54463</v>
+        <v>54488</v>
       </c>
     </row>
     <row r="19">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>70849</v>
+        <v>69869</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>54301</v>
+        <v>54327</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40057</v>
+        <v>40021</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>83020</v>
+        <v>82039</v>
       </c>
     </row>
     <row r="20">
@@ -1504,16 +1504,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10216</v>
+        <v>10663</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15155</v>
+        <v>15140</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21942</v>
+        <v>22861</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>21008</v>
+        <v>20728</v>
       </c>
     </row>
     <row r="23">
@@ -1524,16 +1524,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26798</v>
+        <v>26552</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>35465</v>
+        <v>34499</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41821</v>
+        <v>42993</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>38010</v>
+        <v>37919</v>
       </c>
     </row>
     <row r="24">
@@ -1604,12 +1604,12 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>4487</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="28">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>88711</v>
+        <v>89107</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>102673</v>
+        <v>102003</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>90471</v>
+        <v>90909</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>165913</v>
+        <v>166722</v>
       </c>
     </row>
     <row r="31">
@@ -1684,16 +1684,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>127098</v>
+        <v>128595</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>149921</v>
+        <v>150334</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>129561</v>
+        <v>131317</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>211890</v>
+        <v>213785</v>
       </c>
     </row>
     <row r="32">
